--- a/biology/Médecine/Centre_hospitalier_intercommunal_Toulon-La_Seyne-sur-Mer/Centre_hospitalier_intercommunal_Toulon-La_Seyne-sur-Mer.xlsx
+++ b/biology/Médecine/Centre_hospitalier_intercommunal_Toulon-La_Seyne-sur-Mer/Centre_hospitalier_intercommunal_Toulon-La_Seyne-sur-Mer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le centre hospitalier intercommunal Toulon-La Seyne-sur-Mer est un centre hospitalier intercommunal situé à Toulon dans le Var, en région Provence-Alpes-Côte d'Azur.
@@ -512,17 +524,19 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Il se composé de 3 établissements sur 3 communes différentes[1] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Il se composé de 3 établissements sur 3 communes différentes : 
 hôpital Sainte-Musse, à Toulon ;
 hôpital George-Sand, à La Seyne-sur-Mer ;
 centre de gérontologie Georges-Clemenceau, à La Garde.
-Le groupe est le 3e établissement de santé et 1er centre hospitalier non universitaire de la région PACA[2]. Les anciens hôpitaux de Font-Pré (Toulon) et Chalucet (Toulon, siège du premier hôpital de la ville) ont été fermés en 2012 au profit du nouvel ensemble hospitalier de Sainte-Musse.
+Le groupe est le 3e établissement de santé et 1er centre hospitalier non universitaire de la région PACA. Les anciens hôpitaux de Font-Pré (Toulon) et Chalucet (Toulon, siège du premier hôpital de la ville) ont été fermés en 2012 au profit du nouvel ensemble hospitalier de Sainte-Musse.
 En plus des services classiques d'un hôpital (chirurgie, médecine, urgences), le centre hospitalier intercommunal Toulon-La Seyne-sur-Mer propose des spécialités pour tous les âges de la vie :
-un service de néonatalité s'occupe du suivi pédiatrique ou psychologique des enfants, notamment des prématurés[3] ;
-deux EHPAD, l'un à La Garde, l'autre à La Seyne-sur-Mer, gère la santé de leurs résidents âgés[4]. Le site de La Garde a également développé un service de gériatrie, tant en hospitalisation qu'à domicile[5] ;
-une unité médicale de traumatologie du sport, basé à l'hôpital Sainte-Musse, est spécialisée dans les soins spécifiques[6].</t>
+un service de néonatalité s'occupe du suivi pédiatrique ou psychologique des enfants, notamment des prématurés ;
+deux EHPAD, l'un à La Garde, l'autre à La Seyne-sur-Mer, gère la santé de leurs résidents âgés. Le site de La Garde a également développé un service de gériatrie, tant en hospitalisation qu'à domicile ;
+une unité médicale de traumatologie du sport, basé à l'hôpital Sainte-Musse, est spécialisée dans les soins spécifiques.</t>
         </is>
       </c>
     </row>
